--- a/docker.xlsx
+++ b/docker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DocumentsGIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EADA41-B0DF-4080-827C-6E1DD0898AB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6161311E-46D0-498D-82BD-C75476E5FF0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0EFB59A4-AA35-4D40-8BF0-531013EC6D81}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0EFB59A4-AA35-4D40-8BF0-531013EC6D81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Manipulating Containers with the Docker Client</t>
   </si>
@@ -45,12 +45,21 @@
   <si>
     <t>docker run busybox echo hi there</t>
   </si>
+  <si>
+    <t>Listing Running Containers</t>
+  </si>
+  <si>
+    <t>docker ps</t>
+  </si>
+  <si>
+    <t>docker ps --all</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +91,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -91,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -136,11 +153,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -153,6 +207,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,6 +316,50 @@
         <a:xfrm>
           <a:off x="3705225" y="7353300"/>
           <a:ext cx="10580952" cy="3704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>170059</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>8830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF0A72B3-DAFD-4263-855D-2F2D84BFCD5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724275" y="11772900"/>
+          <a:ext cx="11123809" cy="5561905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -572,10 +680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE630389-1AE9-41D3-AB2C-20303A1021F8}">
-  <dimension ref="B3:O39"/>
+  <dimension ref="B3:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,9 +713,45 @@
       <c r="N39" s="4"/>
       <c r="O39" s="5"/>
     </row>
+    <row r="61" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="8"/>
+    </row>
+    <row r="63" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="F39:O39"/>
+    <mergeCell ref="F62:O62"/>
+    <mergeCell ref="F64:O64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
